--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/20/seed1/result_data_KNN.xlsx
@@ -491,24 +491,24 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>11.856</v>
+        <v>12.643</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.976</v>
+        <v>-21.984</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.632</v>
+        <v>-12.78</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.342</v>
+        <v>12.647</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.746</v>
+        <v>-12.894</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-20.946</v>
+        <v>-21.345</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.798</v>
+        <v>-12.652</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.674</v>
+        <v>-21.118</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.348</v>
+        <v>-21.826</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.628</v>
+        <v>-13.026</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.99</v>
+        <v>13.018</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.4</v>
+        <v>12.852</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.948</v>
+        <v>13.056</v>
       </c>
     </row>
     <row r="15">
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.092</v>
+        <v>-21.114</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.394</v>
+        <v>-12.192</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>13.414</v>
+        <v>12.657</v>
       </c>
     </row>
     <row r="19">
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.208</v>
+        <v>-21.948</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.766</v>
+        <v>-20.921</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.974</v>
+        <v>-12.78</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.316</v>
+        <v>12.464</v>
       </c>
     </row>
   </sheetData>
